--- a/Parameter.xlsx
+++ b/Parameter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Schell\Documents\GitHub\Limits-to-Growth-Masterprojekt-TH-Koeln-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DB2D84-D9EB-47AB-9739-2CF73D6CDBE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE843998-5CE4-4158-83EE-20B5703D4BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3F5EE684-BD36-5A47-B2A5-759BDA655248}"/>
   </bookViews>
@@ -468,7 +468,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="B11" sqref="B2:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -516,7 +516,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C3" s="2">
         <v>28</v>
@@ -628,7 +628,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2">
         <v>0.1</v>

--- a/Parameter.xlsx
+++ b/Parameter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Schell\Documents\GitHub\Limits-to-Growth-Masterprojekt-TH-Koeln-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE843998-5CE4-4158-83EE-20B5703D4BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3B779E-94D7-406C-BE74-572BB1303D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3F5EE684-BD36-5A47-B2A5-759BDA655248}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3F5EE684-BD36-5A47-B2A5-759BDA655248}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -468,7 +468,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B2:B17"/>
+      <selection activeCell="B9" sqref="B5:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Parameter.xlsx
+++ b/Parameter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Schell\Documents\GitHub\Limits-to-Growth-Masterprojekt-TH-Koeln-2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rubenwillamowski/Documents/GitHub/Limits-to-Growth-Masterprojekt-TH-Koeln-2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3B779E-94D7-406C-BE74-572BB1303D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359D3745-2A68-8C4A-8DD8-AF8C2C5F3155}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3F5EE684-BD36-5A47-B2A5-759BDA655248}"/>
+    <workbookView xWindow="28680" yWindow="440" windowWidth="29040" windowHeight="15840" xr2:uid="{3F5EE684-BD36-5A47-B2A5-759BDA655248}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -468,16 +466,16 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B5:B9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -497,7 +495,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -511,7 +509,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -525,7 +523,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -539,12 +537,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2">
         <v>0.75</v>
@@ -553,12 +551,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2">
         <v>3</v>
@@ -567,12 +565,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -581,12 +579,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C8" s="2">
         <v>0.43</v>
@@ -595,12 +593,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C9" s="2">
         <v>0.7</v>
@@ -609,12 +607,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C10" s="2">
         <v>3200000000</v>
@@ -623,12 +621,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C11" s="2">
         <v>0.1</v>
@@ -637,12 +635,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C12" s="2">
         <v>7.0000000000000007E-2</v>
@@ -651,12 +649,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C13" s="2">
         <v>1000</v>
@@ -665,12 +663,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C14" s="2">
         <v>230</v>
@@ -679,12 +677,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C15" s="2">
         <v>0.02</v>
@@ -693,12 +691,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C16" s="3">
         <v>1E-3</v>
@@ -707,12 +705,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C17" s="1">
         <v>1000000000000</v>

--- a/Parameter.xlsx
+++ b/Parameter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rubenwillamowski/Documents/GitHub/Limits-to-Growth-Masterprojekt-TH-Koeln-2022/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Schell\Documents\GitHub\Limits-to-Growth-Masterprojekt-TH-Koeln-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359D3745-2A68-8C4A-8DD8-AF8C2C5F3155}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F15E71-3FA8-4598-B482-69B8DED95EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="440" windowWidth="29040" windowHeight="15840" xr2:uid="{3F5EE684-BD36-5A47-B2A5-759BDA655248}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3F5EE684-BD36-5A47-B2A5-759BDA655248}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -466,16 +466,16 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="B4:B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -495,7 +495,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -509,7 +509,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -523,7 +523,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -537,12 +537,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C5" s="2">
         <v>0.75</v>
@@ -551,12 +551,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C6" s="2">
         <v>3</v>
@@ -565,12 +565,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -579,12 +579,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2">
         <v>0.43</v>
@@ -593,12 +593,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2">
         <v>0.7</v>
@@ -607,12 +607,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2">
         <v>3200000000</v>
@@ -621,12 +621,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2">
         <v>0.1</v>
@@ -635,12 +635,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2">
         <v>7.0000000000000007E-2</v>
@@ -649,12 +649,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C13" s="2">
         <v>1000</v>
@@ -663,12 +663,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C14" s="2">
         <v>230</v>
@@ -677,12 +677,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C15" s="2">
         <v>0.02</v>
@@ -691,12 +691,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C16" s="3">
         <v>1E-3</v>
@@ -705,12 +705,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C17" s="1">
         <v>1000000000000</v>

--- a/Parameter.xlsx
+++ b/Parameter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Schell\Documents\GitHub\Limits-to-Growth-Masterprojekt-TH-Koeln-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F15E71-3FA8-4598-B482-69B8DED95EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F6B37E-5BC6-4478-8596-A12A5AA5E97C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3F5EE684-BD36-5A47-B2A5-759BDA655248}"/>
   </bookViews>
@@ -466,7 +466,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B17"/>
+      <selection activeCell="B4" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -514,7 +514,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2">
         <v>28</v>
@@ -528,7 +528,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2">
         <v>12</v>
@@ -542,7 +542,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2">
         <v>0.75</v>
@@ -556,7 +556,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2">
         <v>3</v>
@@ -570,7 +570,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -584,7 +584,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C8" s="2">
         <v>0.43</v>
@@ -598,7 +598,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C9" s="2">
         <v>0.7</v>
@@ -612,7 +612,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C10" s="2">
         <v>3200000000</v>
@@ -626,7 +626,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C11" s="2">
         <v>0.1</v>
@@ -640,7 +640,7 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C12" s="2">
         <v>7.0000000000000007E-2</v>
@@ -654,7 +654,7 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C13" s="2">
         <v>1000</v>
@@ -668,7 +668,7 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C14" s="2">
         <v>230</v>
@@ -682,7 +682,7 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C15" s="2">
         <v>0.02</v>
@@ -696,7 +696,7 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C16" s="3">
         <v>1E-3</v>
@@ -710,7 +710,7 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C17" s="1">
         <v>1000000000000</v>

--- a/Parameter.xlsx
+++ b/Parameter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Schell\Documents\GitHub\Limits-to-Growth-Masterprojekt-TH-Koeln-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F6B37E-5BC6-4478-8596-A12A5AA5E97C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A046B799-E6A4-42E1-A6FC-B7725F4B959E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3F5EE684-BD36-5A47-B2A5-759BDA655248}"/>
+    <workbookView xWindow="9720" yWindow="1530" windowWidth="13755" windowHeight="13320" xr2:uid="{3F5EE684-BD36-5A47-B2A5-759BDA655248}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="23">
   <si>
     <t>name</t>
   </si>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>use_in_analysis</t>
-  </si>
-  <si>
-    <t>False</t>
   </si>
   <si>
     <t>frpm</t>
@@ -466,7 +463,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B3:B4"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -500,209 +497,209 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2">
         <v>3.8</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2">
         <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2">
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2">
         <v>0.75</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2">
         <v>0.43</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2">
         <v>0.7</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2">
         <v>3200000000</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2">
         <v>0.1</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C13" s="2">
         <v>1000</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C14" s="2">
         <v>230</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C15" s="2">
         <v>0.02</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C16" s="3">
         <v>1E-3</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -710,20 +707,16 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C17" s="1">
         <v>1000000000000</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1000000000000</v>
-      </c>
-      <c r="F17" s="1">
-        <v>8000000000000</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Parameter.xlsx
+++ b/Parameter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Schell\Documents\GitHub\Limits-to-Growth-Masterprojekt-TH-Koeln-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A046B799-E6A4-42E1-A6FC-B7725F4B959E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A66F19-277F-40FC-A606-AB1F7AA46555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9720" yWindow="1530" windowWidth="13755" windowHeight="13320" xr2:uid="{3F5EE684-BD36-5A47-B2A5-759BDA655248}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3F5EE684-BD36-5A47-B2A5-759BDA655248}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="36">
   <si>
     <t>name</t>
   </si>
@@ -103,14 +103,54 @@
   </si>
   <si>
     <t>True</t>
+  </si>
+  <si>
+    <t>ieat</t>
+  </si>
+  <si>
+    <t>ici</t>
+  </si>
+  <si>
+    <t>sci</t>
+  </si>
+  <si>
+    <t>alic1</t>
+  </si>
+  <si>
+    <t>alsc1</t>
+  </si>
+  <si>
+    <t>pali</t>
+  </si>
+  <si>
+    <t>alai1</t>
+  </si>
+  <si>
+    <t>uildt</t>
+  </si>
+  <si>
+    <t>imef</t>
+  </si>
+  <si>
+    <t>imti</t>
+  </si>
+  <si>
+    <t>ghup</t>
+  </si>
+  <si>
+    <t>amti</t>
+  </si>
+  <si>
+    <t>False</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -141,11 +181,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -460,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D29C10D4-A7FE-8146-8F58-EF47C8273621}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -718,6 +759,202 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="2">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="2">
+        <v>210000000000</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="2">
+        <v>144000000000</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="2">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="2">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="2">
+        <v>2300000000</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="2">
+        <v>3200000000</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="2">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="2">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="2">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="4">
+        <v>4.0000000000000002E-9</v>
+      </c>
+      <c r="D30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Parameter.xlsx
+++ b/Parameter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Schell\Documents\GitHub\Limits-to-Growth-Masterprojekt-TH-Koeln-2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rubenwillamowski/Documents/GitHub/Limits-to-Growth-Masterprojekt-TH-Koeln-2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A66F19-277F-40FC-A606-AB1F7AA46555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF8D905-4AB4-CB42-9949-1171A297C0F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3F5EE684-BD36-5A47-B2A5-759BDA655248}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="14200" xr2:uid="{3F5EE684-BD36-5A47-B2A5-759BDA655248}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -504,16 +504,16 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD23"/>
+      <selection activeCell="E19" sqref="E19:F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -533,7 +533,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -547,12 +547,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C3" s="2">
         <v>28</v>
@@ -561,12 +561,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C4" s="2">
         <v>12</v>
@@ -575,12 +575,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C5" s="2">
         <v>0.75</v>
@@ -589,12 +589,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C6" s="2">
         <v>3</v>
@@ -603,12 +603,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -617,12 +617,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C8" s="2">
         <v>0.43</v>
@@ -631,12 +631,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C9" s="2">
         <v>0.7</v>
@@ -645,12 +645,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C10" s="2">
         <v>3200000000</v>
@@ -659,12 +659,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C11" s="2">
         <v>0.1</v>
@@ -673,12 +673,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C12" s="2">
         <v>7.0000000000000007E-2</v>
@@ -687,12 +687,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2">
         <v>1000</v>
@@ -701,12 +701,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C14" s="2">
         <v>230</v>
@@ -715,12 +715,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C15" s="2">
         <v>0.02</v>
@@ -729,12 +729,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C16" s="3">
         <v>1E-3</v>
@@ -743,12 +743,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C17" s="1">
         <v>1000000000000</v>
@@ -759,7 +759,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -773,7 +773,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -787,7 +787,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -801,7 +801,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -815,7 +815,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -829,7 +829,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -843,7 +843,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -857,7 +857,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -871,7 +871,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -885,7 +885,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -899,7 +899,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -913,7 +913,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -927,7 +927,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -941,7 +941,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>34</v>
       </c>

--- a/Parameter.xlsx
+++ b/Parameter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rubenwillamowski/Documents/GitHub/Limits-to-Growth-Masterprojekt-TH-Koeln-2022/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tim\OneDrive\Dokumente\GitHub\Limits-to-Growth-Masterprojekt-TH-Koeln-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF8D905-4AB4-CB42-9949-1171A297C0F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFB75C6-FFD1-43D1-A7D1-E48BD6442B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="14200" xr2:uid="{3F5EE684-BD36-5A47-B2A5-759BDA655248}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{3F5EE684-BD36-5A47-B2A5-759BDA655248}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="35">
   <si>
     <t>name</t>
   </si>
@@ -139,9 +139,6 @@
   </si>
   <si>
     <t>amti</t>
-  </si>
-  <si>
-    <t>False</t>
   </si>
 </sst>
 </file>
@@ -504,16 +501,16 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19:F19"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -533,7 +530,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -547,12 +544,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2">
         <v>28</v>
@@ -561,12 +558,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2">
         <v>12</v>
@@ -575,12 +572,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2">
         <v>0.75</v>
@@ -589,12 +586,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2">
         <v>3</v>
@@ -603,12 +600,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -617,12 +614,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2">
         <v>0.43</v>
@@ -631,12 +628,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2">
         <v>0.7</v>
@@ -645,12 +642,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2">
         <v>3200000000</v>
@@ -659,12 +656,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2">
         <v>0.1</v>
@@ -673,12 +670,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2">
         <v>7.0000000000000007E-2</v>
@@ -687,12 +684,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C13" s="2">
         <v>1000</v>
@@ -701,12 +698,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C14" s="2">
         <v>230</v>
@@ -715,12 +712,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C15" s="2">
         <v>0.02</v>
@@ -729,12 +726,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C16" s="3">
         <v>1E-3</v>
@@ -743,12 +740,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C17" s="1">
         <v>1000000000000</v>
@@ -759,12 +756,12 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C18" s="2">
         <v>3</v>
@@ -773,12 +770,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C19" s="2">
         <v>210000000000</v>
@@ -787,12 +784,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C20" s="2">
         <v>144000000000</v>
@@ -801,12 +798,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C21" s="2">
         <v>14</v>
@@ -815,12 +812,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C22" s="2">
         <v>20</v>
@@ -829,12 +826,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C23" s="2">
         <v>2300000000</v>
@@ -843,12 +840,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C24" s="2">
         <v>3200000000</v>
@@ -857,12 +854,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C25" s="2">
         <v>2</v>
@@ -871,12 +868,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C26" s="2">
         <v>1000</v>
@@ -885,12 +882,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C27" s="2">
         <v>10</v>
@@ -899,12 +896,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C28" s="2">
         <v>0.1</v>
@@ -913,12 +910,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C29" s="2">
         <v>10</v>
@@ -927,12 +924,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C30" s="4">
         <v>4.0000000000000002E-9</v>
@@ -941,12 +938,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C31" s="2">
         <v>1</v>

--- a/Parameter.xlsx
+++ b/Parameter.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tim\OneDrive\Dokumente\GitHub\Limits-to-Growth-Masterprojekt-TH-Koeln-2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Schell\Documents\GitHub\Limits-to-Growth-Masterprojekt-TH-Koeln-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFB75C6-FFD1-43D1-A7D1-E48BD6442B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D84DC57-F993-47D4-86C9-3C6C546D92F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{3F5EE684-BD36-5A47-B2A5-759BDA655248}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3F5EE684-BD36-5A47-B2A5-759BDA655248}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="36">
   <si>
     <t>name</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>amti</t>
+  </si>
+  <si>
+    <t>False</t>
   </si>
 </sst>
 </file>
@@ -501,7 +504,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="B31" sqref="B2:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -803,7 +806,7 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C21" s="2">
         <v>14</v>
@@ -817,7 +820,7 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C22" s="2">
         <v>20</v>
@@ -831,7 +834,7 @@
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C23" s="2">
         <v>2300000000</v>
@@ -845,7 +848,7 @@
         <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C24" s="2">
         <v>3200000000</v>
@@ -859,7 +862,7 @@
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C25" s="2">
         <v>2</v>
@@ -873,7 +876,7 @@
         <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C26" s="2">
         <v>1000</v>
@@ -887,7 +890,7 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C27" s="2">
         <v>10</v>
@@ -901,7 +904,7 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C28" s="2">
         <v>0.1</v>
@@ -915,7 +918,7 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C29" s="2">
         <v>10</v>
@@ -929,7 +932,7 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C30" s="4">
         <v>4.0000000000000002E-9</v>
@@ -943,7 +946,7 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C31" s="2">
         <v>1</v>
